--- a/2022/Samsung/February/26.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
+++ b/2022/Samsung/February/26.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -2009,7 +2009,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="354">
+  <cellXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2883,6 +2883,34 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3009,34 +3037,36 @@
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="43" fillId="42" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="37" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="21" fontId="37" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="15" fontId="43" fillId="42" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="37" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3495,33 +3525,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="303"/>
-      <c r="B1" s="303"/>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
+      <c r="A1" s="313"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="304"/>
-      <c r="B2" s="301" t="s">
+      <c r="A2" s="314"/>
+      <c r="B2" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="304"/>
-      <c r="B3" s="302" t="s">
+      <c r="A3" s="314"/>
+      <c r="B3" s="312" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="302"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="302"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="304"/>
+      <c r="A4" s="314"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3539,7 +3569,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="304"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3557,7 +3587,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="304"/>
+      <c r="A6" s="314"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3569,7 +3599,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="304"/>
+      <c r="A7" s="314"/>
       <c r="B7" s="26" t="s">
         <v>45</v>
       </c>
@@ -3588,7 +3618,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="304"/>
+      <c r="A8" s="314"/>
       <c r="B8" s="26" t="s">
         <v>46</v>
       </c>
@@ -3607,7 +3637,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="304"/>
+      <c r="A9" s="314"/>
       <c r="B9" s="26" t="s">
         <v>48</v>
       </c>
@@ -3626,7 +3656,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="304"/>
+      <c r="A10" s="314"/>
       <c r="B10" s="26" t="s">
         <v>49</v>
       </c>
@@ -3645,7 +3675,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="304"/>
+      <c r="A11" s="314"/>
       <c r="B11" s="26" t="s">
         <v>50</v>
       </c>
@@ -3664,7 +3694,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="304"/>
+      <c r="A12" s="314"/>
       <c r="B12" s="26" t="s">
         <v>51</v>
       </c>
@@ -3683,7 +3713,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="304"/>
+      <c r="A13" s="314"/>
       <c r="B13" s="26" t="s">
         <v>52</v>
       </c>
@@ -3702,7 +3732,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="304"/>
+      <c r="A14" s="314"/>
       <c r="B14" s="26" t="s">
         <v>53</v>
       </c>
@@ -3721,7 +3751,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="304"/>
+      <c r="A15" s="314"/>
       <c r="B15" s="26" t="s">
         <v>54</v>
       </c>
@@ -3740,7 +3770,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="304"/>
+      <c r="A16" s="314"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3753,7 +3783,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="304"/>
+      <c r="A17" s="314"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -3766,7 +3796,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="304"/>
+      <c r="A18" s="314"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3779,7 +3809,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="304"/>
+      <c r="A19" s="314"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -3792,7 +3822,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="304"/>
+      <c r="A20" s="314"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -3805,7 +3835,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="304"/>
+      <c r="A21" s="314"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -3818,7 +3848,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="304"/>
+      <c r="A22" s="314"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -3831,7 +3861,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="304"/>
+      <c r="A23" s="314"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3844,7 +3874,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="304"/>
+      <c r="A24" s="314"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -3857,7 +3887,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="304"/>
+      <c r="A25" s="314"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -3870,7 +3900,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="304"/>
+      <c r="A26" s="314"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -3883,7 +3913,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="304"/>
+      <c r="A27" s="314"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -3896,7 +3926,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="304"/>
+      <c r="A28" s="314"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -3909,7 +3939,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="304"/>
+      <c r="A29" s="314"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -3922,7 +3952,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="304"/>
+      <c r="A30" s="314"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -3935,7 +3965,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="304"/>
+      <c r="A31" s="314"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -3948,7 +3978,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="304"/>
+      <c r="A32" s="314"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -3961,7 +3991,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="304"/>
+      <c r="A33" s="314"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -3974,7 +4004,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="304"/>
+      <c r="A34" s="314"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -3987,7 +4017,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="304"/>
+      <c r="A35" s="314"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4000,7 +4030,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="304"/>
+      <c r="A36" s="314"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4013,7 +4043,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="304"/>
+      <c r="A37" s="314"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4026,7 +4056,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="304"/>
+      <c r="A38" s="314"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4039,7 +4069,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="304"/>
+      <c r="A39" s="314"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4052,7 +4082,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="304"/>
+      <c r="A40" s="314"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4065,7 +4095,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="304"/>
+      <c r="A41" s="314"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4078,7 +4108,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="304"/>
+      <c r="A42" s="314"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4091,7 +4121,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="304"/>
+      <c r="A43" s="314"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4104,7 +4134,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="304"/>
+      <c r="A44" s="314"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4117,7 +4147,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="304"/>
+      <c r="A45" s="314"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4130,7 +4160,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="304"/>
+      <c r="A46" s="314"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4143,7 +4173,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="304"/>
+      <c r="A47" s="314"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4156,7 +4186,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="304"/>
+      <c r="A48" s="314"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4169,7 +4199,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="304"/>
+      <c r="A49" s="314"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4182,7 +4212,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="304"/>
+      <c r="A50" s="314"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4195,7 +4225,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="304"/>
+      <c r="A51" s="314"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4208,7 +4238,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="304"/>
+      <c r="A52" s="314"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4221,7 +4251,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="304"/>
+      <c r="A53" s="314"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4234,7 +4264,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="304"/>
+      <c r="A54" s="314"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4247,7 +4277,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="304"/>
+      <c r="A55" s="314"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4259,7 +4289,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="304"/>
+      <c r="A56" s="314"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4271,7 +4301,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="304"/>
+      <c r="A57" s="314"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4283,7 +4313,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="304"/>
+      <c r="A58" s="314"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4295,7 +4325,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="304"/>
+      <c r="A59" s="314"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4307,7 +4337,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="304"/>
+      <c r="A60" s="314"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4319,7 +4349,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="304"/>
+      <c r="A61" s="314"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4331,7 +4361,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="304"/>
+      <c r="A62" s="314"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4343,7 +4373,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="304"/>
+      <c r="A63" s="314"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4355,7 +4385,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="304"/>
+      <c r="A64" s="314"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4367,7 +4397,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="304"/>
+      <c r="A65" s="314"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4379,7 +4409,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="304"/>
+      <c r="A66" s="314"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4391,7 +4421,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="304"/>
+      <c r="A67" s="314"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4403,7 +4433,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="304"/>
+      <c r="A68" s="314"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4415,7 +4445,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="304"/>
+      <c r="A69" s="314"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4427,7 +4457,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="304"/>
+      <c r="A70" s="314"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4439,7 +4469,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="304"/>
+      <c r="A71" s="314"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4451,7 +4481,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="304"/>
+      <c r="A72" s="314"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4463,7 +4493,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="304"/>
+      <c r="A73" s="314"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4475,7 +4505,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="304"/>
+      <c r="A74" s="314"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4487,7 +4517,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="304"/>
+      <c r="A75" s="314"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4499,7 +4529,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="304"/>
+      <c r="A76" s="314"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4511,7 +4541,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="304"/>
+      <c r="A77" s="314"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4523,7 +4553,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="304"/>
+      <c r="A78" s="314"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4535,7 +4565,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="304"/>
+      <c r="A79" s="314"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4547,7 +4577,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="304"/>
+      <c r="A80" s="314"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4559,7 +4589,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="304"/>
+      <c r="A81" s="314"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4571,7 +4601,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="304"/>
+      <c r="A82" s="314"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4583,7 +4613,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="304"/>
+      <c r="A83" s="314"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5206,33 +5236,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="303"/>
-      <c r="B1" s="303"/>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
+      <c r="A1" s="313"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="304"/>
-      <c r="B2" s="301" t="s">
+      <c r="A2" s="314"/>
+      <c r="B2" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="304"/>
-      <c r="B3" s="302" t="s">
+      <c r="A3" s="314"/>
+      <c r="B3" s="312" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="302"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="302"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="304"/>
+      <c r="A4" s="314"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5250,7 +5280,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="304"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5268,7 +5298,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="304"/>
+      <c r="A6" s="314"/>
       <c r="B6" s="26"/>
       <c r="C6" s="248"/>
       <c r="D6" s="248"/>
@@ -5280,7 +5310,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="304"/>
+      <c r="A7" s="314"/>
       <c r="B7" s="26" t="s">
         <v>69</v>
       </c>
@@ -5298,7 +5328,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="304"/>
+      <c r="A8" s="314"/>
       <c r="B8" s="26" t="s">
         <v>89</v>
       </c>
@@ -5316,7 +5346,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="304"/>
+      <c r="A9" s="314"/>
       <c r="B9" s="26" t="s">
         <v>98</v>
       </c>
@@ -5334,7 +5364,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="304"/>
+      <c r="A10" s="314"/>
       <c r="B10" s="26" t="s">
         <v>105</v>
       </c>
@@ -5352,17 +5382,17 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="304"/>
+      <c r="A11" s="314"/>
       <c r="B11" s="26" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="248">
         <v>0</v>
       </c>
-      <c r="D11" s="349">
+      <c r="D11" s="306">
         <v>0</v>
       </c>
-      <c r="E11" s="350">
+      <c r="E11" s="307">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5370,7 +5400,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="304"/>
+      <c r="A12" s="314"/>
       <c r="B12" s="26" t="s">
         <v>128</v>
       </c>
@@ -5384,20 +5414,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="352" t="s">
+      <c r="F12" s="309" t="s">
         <v>127</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="304"/>
+      <c r="A13" s="314"/>
       <c r="B13" s="26" t="s">
         <v>137</v>
       </c>
       <c r="C13" s="248">
         <v>0</v>
       </c>
-      <c r="D13" s="351">
+      <c r="D13" s="308">
         <v>0</v>
       </c>
       <c r="E13" s="249">
@@ -5408,7 +5438,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="304"/>
+      <c r="A14" s="314"/>
       <c r="B14" s="26" t="s">
         <v>138</v>
       </c>
@@ -5422,13 +5452,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="352" t="s">
+      <c r="F14" s="309" t="s">
         <v>127</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="304"/>
+      <c r="A15" s="314"/>
       <c r="B15" s="26" t="s">
         <v>139</v>
       </c>
@@ -5446,7 +5476,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="304"/>
+      <c r="A16" s="314"/>
       <c r="B16" s="26" t="s">
         <v>145</v>
       </c>
@@ -5464,7 +5494,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="304"/>
+      <c r="A17" s="314"/>
       <c r="B17" s="26" t="s">
         <v>146</v>
       </c>
@@ -5478,13 +5508,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="352" t="s">
+      <c r="F17" s="309" t="s">
         <v>147</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="304"/>
+      <c r="A18" s="314"/>
       <c r="B18" s="26" t="s">
         <v>148</v>
       </c>
@@ -5502,7 +5532,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="304"/>
+      <c r="A19" s="314"/>
       <c r="B19" s="26" t="s">
         <v>149</v>
       </c>
@@ -5520,7 +5550,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="304"/>
+      <c r="A20" s="314"/>
       <c r="B20" s="26" t="s">
         <v>152</v>
       </c>
@@ -5538,7 +5568,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="304"/>
+      <c r="A21" s="314"/>
       <c r="B21" s="26" t="s">
         <v>153</v>
       </c>
@@ -5556,7 +5586,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="304"/>
+      <c r="A22" s="314"/>
       <c r="B22" s="26" t="s">
         <v>154</v>
       </c>
@@ -5570,13 +5600,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="353" t="s">
+      <c r="F22" s="310" t="s">
         <v>155</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="304"/>
+      <c r="A23" s="314"/>
       <c r="B23" s="26" t="s">
         <v>156</v>
       </c>
@@ -5594,7 +5624,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="304"/>
+      <c r="A24" s="314"/>
       <c r="B24" s="26" t="s">
         <v>157</v>
       </c>
@@ -5612,7 +5642,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="304"/>
+      <c r="A25" s="314"/>
       <c r="B25" s="26" t="s">
         <v>159</v>
       </c>
@@ -5630,7 +5660,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="304"/>
+      <c r="A26" s="314"/>
       <c r="B26" s="26" t="s">
         <v>160</v>
       </c>
@@ -5648,7 +5678,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="304"/>
+      <c r="A27" s="314"/>
       <c r="B27" s="26" t="s">
         <v>164</v>
       </c>
@@ -5666,7 +5696,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="304"/>
+      <c r="A28" s="314"/>
       <c r="B28" s="26"/>
       <c r="C28" s="248"/>
       <c r="D28" s="248"/>
@@ -5678,7 +5708,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="304"/>
+      <c r="A29" s="314"/>
       <c r="B29" s="26"/>
       <c r="C29" s="248"/>
       <c r="D29" s="248"/>
@@ -5690,7 +5720,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="304"/>
+      <c r="A30" s="314"/>
       <c r="B30" s="26"/>
       <c r="C30" s="248"/>
       <c r="D30" s="248"/>
@@ -5702,7 +5732,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="304"/>
+      <c r="A31" s="314"/>
       <c r="B31" s="26"/>
       <c r="C31" s="248"/>
       <c r="D31" s="248"/>
@@ -5714,7 +5744,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="304"/>
+      <c r="A32" s="314"/>
       <c r="B32" s="26"/>
       <c r="C32" s="248"/>
       <c r="D32" s="248"/>
@@ -5726,7 +5756,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="304"/>
+      <c r="A33" s="314"/>
       <c r="B33" s="26"/>
       <c r="C33" s="248"/>
       <c r="D33" s="251"/>
@@ -5738,7 +5768,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="304"/>
+      <c r="A34" s="314"/>
       <c r="B34" s="26"/>
       <c r="C34" s="248"/>
       <c r="D34" s="248"/>
@@ -5750,7 +5780,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="304"/>
+      <c r="A35" s="314"/>
       <c r="B35" s="26"/>
       <c r="C35" s="248"/>
       <c r="D35" s="248"/>
@@ -5762,7 +5792,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="304"/>
+      <c r="A36" s="314"/>
       <c r="B36" s="26"/>
       <c r="C36" s="248"/>
       <c r="D36" s="248"/>
@@ -5774,7 +5804,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="304"/>
+      <c r="A37" s="314"/>
       <c r="B37" s="26"/>
       <c r="C37" s="248"/>
       <c r="D37" s="248"/>
@@ -5786,7 +5816,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="304"/>
+      <c r="A38" s="314"/>
       <c r="B38" s="26"/>
       <c r="C38" s="248"/>
       <c r="D38" s="248"/>
@@ -5798,7 +5828,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="304"/>
+      <c r="A39" s="314"/>
       <c r="B39" s="26"/>
       <c r="C39" s="248"/>
       <c r="D39" s="248"/>
@@ -5810,7 +5840,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="304"/>
+      <c r="A40" s="314"/>
       <c r="B40" s="26"/>
       <c r="C40" s="248"/>
       <c r="D40" s="248"/>
@@ -5822,7 +5852,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="304"/>
+      <c r="A41" s="314"/>
       <c r="B41" s="26"/>
       <c r="C41" s="248"/>
       <c r="D41" s="248"/>
@@ -5834,7 +5864,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="304"/>
+      <c r="A42" s="314"/>
       <c r="B42" s="26"/>
       <c r="C42" s="248"/>
       <c r="D42" s="248"/>
@@ -5846,7 +5876,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="304"/>
+      <c r="A43" s="314"/>
       <c r="B43" s="26"/>
       <c r="C43" s="248"/>
       <c r="D43" s="248"/>
@@ -5858,7 +5888,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="304"/>
+      <c r="A44" s="314"/>
       <c r="B44" s="26"/>
       <c r="C44" s="248"/>
       <c r="D44" s="248"/>
@@ -5870,7 +5900,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="304"/>
+      <c r="A45" s="314"/>
       <c r="B45" s="26"/>
       <c r="C45" s="248"/>
       <c r="D45" s="248"/>
@@ -5882,7 +5912,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="304"/>
+      <c r="A46" s="314"/>
       <c r="B46" s="26"/>
       <c r="C46" s="248"/>
       <c r="D46" s="248"/>
@@ -5894,7 +5924,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="304"/>
+      <c r="A47" s="314"/>
       <c r="B47" s="26"/>
       <c r="C47" s="248"/>
       <c r="D47" s="248"/>
@@ -5906,7 +5936,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="304"/>
+      <c r="A48" s="314"/>
       <c r="B48" s="26"/>
       <c r="C48" s="248"/>
       <c r="D48" s="248"/>
@@ -5918,7 +5948,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="304"/>
+      <c r="A49" s="314"/>
       <c r="B49" s="26"/>
       <c r="C49" s="248"/>
       <c r="D49" s="248"/>
@@ -5930,7 +5960,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="304"/>
+      <c r="A50" s="314"/>
       <c r="B50" s="26"/>
       <c r="C50" s="248"/>
       <c r="D50" s="248"/>
@@ -5942,7 +5972,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="304"/>
+      <c r="A51" s="314"/>
       <c r="B51" s="26"/>
       <c r="C51" s="248"/>
       <c r="D51" s="248"/>
@@ -5954,7 +5984,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="304"/>
+      <c r="A52" s="314"/>
       <c r="B52" s="26"/>
       <c r="C52" s="248"/>
       <c r="D52" s="248"/>
@@ -5966,7 +5996,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="304"/>
+      <c r="A53" s="314"/>
       <c r="B53" s="26"/>
       <c r="C53" s="248"/>
       <c r="D53" s="248"/>
@@ -5978,7 +6008,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="304"/>
+      <c r="A54" s="314"/>
       <c r="B54" s="26"/>
       <c r="C54" s="248"/>
       <c r="D54" s="248"/>
@@ -5990,7 +6020,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="304"/>
+      <c r="A55" s="314"/>
       <c r="B55" s="26"/>
       <c r="C55" s="248"/>
       <c r="D55" s="248"/>
@@ -6001,7 +6031,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="304"/>
+      <c r="A56" s="314"/>
       <c r="B56" s="26"/>
       <c r="C56" s="248"/>
       <c r="D56" s="248"/>
@@ -6012,7 +6042,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="304"/>
+      <c r="A57" s="314"/>
       <c r="B57" s="26"/>
       <c r="C57" s="248"/>
       <c r="D57" s="248"/>
@@ -6023,7 +6053,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="304"/>
+      <c r="A58" s="314"/>
       <c r="B58" s="26"/>
       <c r="C58" s="248"/>
       <c r="D58" s="248"/>
@@ -6034,7 +6064,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="304"/>
+      <c r="A59" s="314"/>
       <c r="B59" s="26"/>
       <c r="C59" s="248"/>
       <c r="D59" s="248"/>
@@ -6045,7 +6075,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="304"/>
+      <c r="A60" s="314"/>
       <c r="B60" s="26"/>
       <c r="C60" s="248"/>
       <c r="D60" s="248"/>
@@ -6056,7 +6086,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="304"/>
+      <c r="A61" s="314"/>
       <c r="B61" s="26"/>
       <c r="C61" s="248"/>
       <c r="D61" s="248"/>
@@ -6067,7 +6097,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="304"/>
+      <c r="A62" s="314"/>
       <c r="B62" s="26"/>
       <c r="C62" s="248"/>
       <c r="D62" s="248"/>
@@ -6078,7 +6108,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="304"/>
+      <c r="A63" s="314"/>
       <c r="B63" s="26"/>
       <c r="C63" s="248"/>
       <c r="D63" s="248"/>
@@ -6089,7 +6119,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="304"/>
+      <c r="A64" s="314"/>
       <c r="B64" s="26"/>
       <c r="C64" s="248"/>
       <c r="D64" s="248"/>
@@ -6100,7 +6130,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="304"/>
+      <c r="A65" s="314"/>
       <c r="B65" s="26"/>
       <c r="C65" s="248"/>
       <c r="D65" s="248"/>
@@ -6111,7 +6141,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="304"/>
+      <c r="A66" s="314"/>
       <c r="B66" s="26"/>
       <c r="C66" s="248"/>
       <c r="D66" s="248"/>
@@ -6122,7 +6152,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="304"/>
+      <c r="A67" s="314"/>
       <c r="B67" s="26"/>
       <c r="C67" s="248"/>
       <c r="D67" s="248"/>
@@ -6133,7 +6163,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="304"/>
+      <c r="A68" s="314"/>
       <c r="B68" s="26"/>
       <c r="C68" s="248"/>
       <c r="D68" s="248"/>
@@ -6144,7 +6174,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="304"/>
+      <c r="A69" s="314"/>
       <c r="B69" s="26"/>
       <c r="C69" s="248"/>
       <c r="D69" s="248"/>
@@ -6155,7 +6185,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="304"/>
+      <c r="A70" s="314"/>
       <c r="B70" s="26"/>
       <c r="C70" s="248"/>
       <c r="D70" s="248"/>
@@ -6166,7 +6196,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="304"/>
+      <c r="A71" s="314"/>
       <c r="B71" s="26"/>
       <c r="C71" s="248"/>
       <c r="D71" s="248"/>
@@ -6177,7 +6207,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="304"/>
+      <c r="A72" s="314"/>
       <c r="B72" s="26"/>
       <c r="C72" s="248"/>
       <c r="D72" s="248"/>
@@ -6188,7 +6218,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="304"/>
+      <c r="A73" s="314"/>
       <c r="B73" s="26"/>
       <c r="C73" s="248"/>
       <c r="D73" s="248"/>
@@ -6199,7 +6229,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="304"/>
+      <c r="A74" s="314"/>
       <c r="B74" s="26"/>
       <c r="C74" s="248"/>
       <c r="D74" s="248"/>
@@ -6210,7 +6240,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="304"/>
+      <c r="A75" s="314"/>
       <c r="B75" s="26"/>
       <c r="C75" s="248"/>
       <c r="D75" s="248"/>
@@ -6221,7 +6251,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="304"/>
+      <c r="A76" s="314"/>
       <c r="B76" s="26"/>
       <c r="C76" s="248"/>
       <c r="D76" s="248"/>
@@ -6232,7 +6262,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="304"/>
+      <c r="A77" s="314"/>
       <c r="B77" s="26"/>
       <c r="C77" s="248"/>
       <c r="D77" s="248"/>
@@ -6243,7 +6273,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="304"/>
+      <c r="A78" s="314"/>
       <c r="B78" s="26"/>
       <c r="C78" s="248"/>
       <c r="D78" s="248"/>
@@ -6254,7 +6284,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="304"/>
+      <c r="A79" s="314"/>
       <c r="B79" s="26"/>
       <c r="C79" s="248"/>
       <c r="D79" s="248"/>
@@ -6266,7 +6296,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="304"/>
+      <c r="A80" s="314"/>
       <c r="B80" s="26"/>
       <c r="C80" s="248"/>
       <c r="D80" s="248"/>
@@ -6278,7 +6308,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="304"/>
+      <c r="A81" s="314"/>
       <c r="B81" s="26"/>
       <c r="C81" s="248"/>
       <c r="D81" s="248"/>
@@ -6290,7 +6320,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="304"/>
+      <c r="A82" s="314"/>
       <c r="B82" s="26"/>
       <c r="C82" s="248"/>
       <c r="D82" s="248"/>
@@ -6302,7 +6332,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="304"/>
+      <c r="A83" s="314"/>
       <c r="B83" s="31"/>
       <c r="C83" s="250">
         <f>SUM(C5:C72)</f>
@@ -6357,67 +6387,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="319" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="309"/>
-      <c r="P1" s="309"/>
-      <c r="Q1" s="309"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
+      <c r="K1" s="319"/>
+      <c r="L1" s="319"/>
+      <c r="M1" s="319"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="319"/>
+      <c r="P1" s="319"/>
+      <c r="Q1" s="319"/>
     </row>
     <row r="2" spans="1:24" s="64" customFormat="1" ht="18">
-      <c r="A2" s="310" t="s">
+      <c r="A2" s="320" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="310"/>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
-      <c r="I2" s="310"/>
-      <c r="J2" s="310"/>
-      <c r="K2" s="310"/>
-      <c r="L2" s="310"/>
-      <c r="M2" s="310"/>
-      <c r="N2" s="310"/>
-      <c r="O2" s="310"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="310"/>
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="320"/>
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="320"/>
+      <c r="K2" s="320"/>
+      <c r="L2" s="320"/>
+      <c r="M2" s="320"/>
+      <c r="N2" s="320"/>
+      <c r="O2" s="320"/>
+      <c r="P2" s="320"/>
+      <c r="Q2" s="320"/>
     </row>
     <row r="3" spans="1:24" s="65" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="311" t="s">
+      <c r="A3" s="321" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="312"/>
-      <c r="C3" s="312"/>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
-      <c r="F3" s="312"/>
-      <c r="G3" s="312"/>
-      <c r="H3" s="312"/>
-      <c r="I3" s="312"/>
-      <c r="J3" s="312"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="312"/>
-      <c r="M3" s="312"/>
-      <c r="N3" s="312"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="312"/>
-      <c r="Q3" s="313"/>
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
+      <c r="O3" s="322"/>
+      <c r="P3" s="322"/>
+      <c r="Q3" s="323"/>
       <c r="S3" s="49"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6426,52 +6456,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="66" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="314" t="s">
+      <c r="A4" s="324" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="316" t="s">
+      <c r="B4" s="326" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="305" t="s">
+      <c r="C4" s="315" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="305" t="s">
+      <c r="D4" s="315" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="315" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="305" t="s">
+      <c r="F4" s="315" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="305" t="s">
+      <c r="G4" s="315" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="305" t="s">
+      <c r="H4" s="315" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="305" t="s">
+      <c r="I4" s="315" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="305" t="s">
+      <c r="J4" s="315" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="305" t="s">
+      <c r="K4" s="315" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="305" t="s">
+      <c r="L4" s="315" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="305" t="s">
+      <c r="M4" s="315" t="s">
         <v>158</v>
       </c>
-      <c r="N4" s="305" t="s">
+      <c r="N4" s="315" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="307" t="s">
+      <c r="O4" s="317" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="318" t="s">
+      <c r="P4" s="328" t="s">
         <v>55</v>
       </c>
       <c r="Q4" s="124" t="s">
@@ -6484,22 +6514,22 @@
       <c r="W4" s="68"/>
     </row>
     <row r="5" spans="1:24" s="66" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="315"/>
-      <c r="B5" s="317"/>
-      <c r="C5" s="306"/>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="306"/>
-      <c r="J5" s="306"/>
-      <c r="K5" s="306"/>
-      <c r="L5" s="306"/>
-      <c r="M5" s="306"/>
-      <c r="N5" s="306"/>
-      <c r="O5" s="308"/>
-      <c r="P5" s="319"/>
+      <c r="A5" s="325"/>
+      <c r="B5" s="327"/>
+      <c r="C5" s="316"/>
+      <c r="D5" s="316"/>
+      <c r="E5" s="316"/>
+      <c r="F5" s="316"/>
+      <c r="G5" s="316"/>
+      <c r="H5" s="316"/>
+      <c r="I5" s="316"/>
+      <c r="J5" s="316"/>
+      <c r="K5" s="316"/>
+      <c r="L5" s="316"/>
+      <c r="M5" s="316"/>
+      <c r="N5" s="316"/>
+      <c r="O5" s="318"/>
+      <c r="P5" s="329"/>
       <c r="Q5" s="125" t="s">
         <v>41</v>
       </c>
@@ -9559,11 +9589,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9578,6 +9603,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9590,8 +9620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9618,15 +9648,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="335" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
       <c r="H1" s="59"/>
       <c r="I1" s="141"/>
       <c r="J1" s="141"/>
@@ -9719,15 +9749,15 @@
       <c r="CS1" s="136"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="336" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="326"/>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326"/>
+      <c r="B2" s="336"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
       <c r="H2" s="59"/>
       <c r="I2" s="141"/>
       <c r="J2" s="141"/>
@@ -9820,15 +9850,15 @@
       <c r="CS2" s="136"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="327" t="s">
+      <c r="A3" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="327"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="337"/>
+      <c r="G3" s="337"/>
       <c r="H3" s="59"/>
       <c r="I3" s="141"/>
       <c r="J3" s="141"/>
@@ -13288,12 +13318,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="131"/>
-      <c r="B35" s="322" t="s">
+      <c r="B35" s="332" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="322"/>
-      <c r="D35" s="322"/>
-      <c r="E35" s="322"/>
+      <c r="C35" s="332"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="332"/>
       <c r="F35" s="132"/>
       <c r="G35" s="137"/>
       <c r="H35" s="137"/>
@@ -14114,10 +14144,10 @@
       <c r="D43" s="206"/>
       <c r="E43" s="174"/>
       <c r="F43" s="132"/>
-      <c r="G43" s="323"/>
-      <c r="H43" s="323"/>
-      <c r="I43" s="323"/>
-      <c r="J43" s="323"/>
+      <c r="G43" s="333"/>
+      <c r="H43" s="333"/>
+      <c r="I43" s="333"/>
+      <c r="J43" s="333"/>
       <c r="K43" s="59"/>
       <c r="L43" s="141"/>
       <c r="M43" s="59"/>
@@ -14430,14 +14460,14 @@
       <c r="A46" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="343" t="s">
+      <c r="B46" s="301" t="s">
         <v>83</v>
       </c>
       <c r="C46" s="126"/>
-      <c r="D46" s="344">
+      <c r="D46" s="302">
         <v>65000</v>
       </c>
-      <c r="E46" s="345" t="s">
+      <c r="E46" s="303" t="s">
         <v>148</v>
       </c>
       <c r="F46" s="129"/>
@@ -14537,17 +14567,17 @@
       <c r="CS46" s="136"/>
     </row>
     <row r="47" spans="1:97">
-      <c r="A47" s="223" t="s">
+      <c r="A47" s="353" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="354" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="117"/>
-      <c r="D47" s="208">
+      <c r="C47" s="355"/>
+      <c r="D47" s="356">
         <v>218000</v>
       </c>
-      <c r="E47" s="176" t="s">
+      <c r="E47" s="357" t="s">
         <v>105</v>
       </c>
       <c r="F47" s="130"/>
@@ -14650,11 +14680,11 @@
       <c r="A48" s="223" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="346" t="s">
+      <c r="B48" s="304" t="s">
         <v>118</v>
       </c>
       <c r="C48" s="117"/>
-      <c r="D48" s="347">
+      <c r="D48" s="305">
         <v>200000</v>
       </c>
       <c r="E48" s="178" t="s">
@@ -14977,17 +15007,17 @@
       <c r="CS50" s="136"/>
     </row>
     <row r="51" spans="1:97">
-      <c r="A51" s="223" t="s">
+      <c r="A51" s="353" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="358" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="117"/>
-      <c r="D51" s="208">
+      <c r="C51" s="355"/>
+      <c r="D51" s="356">
         <v>50000</v>
       </c>
-      <c r="E51" s="177" t="s">
+      <c r="E51" s="359" t="s">
         <v>139</v>
       </c>
       <c r="F51" s="130"/>
@@ -15307,17 +15337,17 @@
       <c r="CS53" s="136"/>
     </row>
     <row r="54" spans="1:97">
-      <c r="A54" s="223" t="s">
+      <c r="A54" s="353" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="358" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="117"/>
-      <c r="D54" s="208">
+      <c r="C54" s="355"/>
+      <c r="D54" s="356">
         <v>319360</v>
       </c>
-      <c r="E54" s="177" t="s">
+      <c r="E54" s="359" t="s">
         <v>164</v>
       </c>
       <c r="F54" s="130"/>
@@ -15417,17 +15447,17 @@
       <c r="CS54" s="136"/>
     </row>
     <row r="55" spans="1:97">
-      <c r="A55" s="223" t="s">
+      <c r="A55" s="353" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="358" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="117"/>
-      <c r="D55" s="208">
+      <c r="C55" s="355"/>
+      <c r="D55" s="356">
         <v>41970</v>
       </c>
-      <c r="E55" s="176" t="s">
+      <c r="E55" s="357" t="s">
         <v>69</v>
       </c>
       <c r="F55" s="130"/>
@@ -15527,17 +15557,17 @@
       <c r="CS55" s="136"/>
     </row>
     <row r="56" spans="1:97">
-      <c r="A56" s="224" t="s">
+      <c r="A56" s="360" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="348" t="s">
+      <c r="B56" s="361" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="117"/>
-      <c r="D56" s="208">
+      <c r="C56" s="355"/>
+      <c r="D56" s="356">
         <v>94260</v>
       </c>
-      <c r="E56" s="176" t="s">
+      <c r="E56" s="357" t="s">
         <v>164</v>
       </c>
       <c r="F56" s="130"/>
@@ -15637,17 +15667,17 @@
       <c r="CS56" s="136"/>
     </row>
     <row r="57" spans="1:97">
-      <c r="A57" s="224" t="s">
+      <c r="A57" s="360" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="354" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="117"/>
-      <c r="D57" s="208">
+      <c r="C57" s="355"/>
+      <c r="D57" s="356">
         <v>188300</v>
       </c>
-      <c r="E57" s="178" t="s">
+      <c r="E57" s="362" t="s">
         <v>156</v>
       </c>
       <c r="F57" s="130"/>
@@ -15747,17 +15777,17 @@
       <c r="CS57" s="136"/>
     </row>
     <row r="58" spans="1:97">
-      <c r="A58" s="224" t="s">
+      <c r="A58" s="360" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="346" t="s">
+      <c r="B58" s="363" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="117"/>
-      <c r="D58" s="208">
+      <c r="C58" s="355"/>
+      <c r="D58" s="356">
         <v>162250</v>
       </c>
-      <c r="E58" s="176" t="s">
+      <c r="E58" s="357" t="s">
         <v>122</v>
       </c>
       <c r="F58" s="130"/>
@@ -15857,17 +15887,17 @@
       <c r="CS58" s="136"/>
     </row>
     <row r="59" spans="1:97">
-      <c r="A59" s="224" t="s">
+      <c r="A59" s="360" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="358" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="117"/>
-      <c r="D59" s="208">
+      <c r="C59" s="355"/>
+      <c r="D59" s="356">
         <v>163370</v>
       </c>
-      <c r="E59" s="176" t="s">
+      <c r="E59" s="357" t="s">
         <v>149</v>
       </c>
       <c r="F59" s="130"/>
@@ -16187,17 +16217,17 @@
       <c r="CS61" s="136"/>
     </row>
     <row r="62" spans="1:97">
-      <c r="A62" s="224" t="s">
+      <c r="A62" s="360" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="348" t="s">
+      <c r="B62" s="361" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="117"/>
-      <c r="D62" s="208">
+      <c r="C62" s="355"/>
+      <c r="D62" s="356">
         <v>100000</v>
       </c>
-      <c r="E62" s="176" t="s">
+      <c r="E62" s="357" t="s">
         <v>89</v>
       </c>
       <c r="F62" s="129"/>
@@ -16297,17 +16327,17 @@
       <c r="CS62" s="136"/>
     </row>
     <row r="63" spans="1:97">
-      <c r="A63" s="224" t="s">
+      <c r="A63" s="360" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="348" t="s">
+      <c r="B63" s="361" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="117"/>
-      <c r="D63" s="208">
+      <c r="C63" s="355"/>
+      <c r="D63" s="356">
         <v>200000</v>
       </c>
-      <c r="E63" s="178" t="s">
+      <c r="E63" s="362" t="s">
         <v>122</v>
       </c>
       <c r="F63" s="130"/>
@@ -16407,17 +16437,17 @@
       <c r="CS63" s="136"/>
     </row>
     <row r="64" spans="1:97">
-      <c r="A64" s="224" t="s">
+      <c r="A64" s="360" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="354" t="s">
         <v>150</v>
       </c>
-      <c r="C64" s="117"/>
-      <c r="D64" s="208">
+      <c r="C64" s="355"/>
+      <c r="D64" s="356">
         <v>24000</v>
       </c>
-      <c r="E64" s="177" t="s">
+      <c r="E64" s="359" t="s">
         <v>156</v>
       </c>
       <c r="F64" s="130"/>
@@ -22029,11 +22059,11 @@
       <c r="CS118" s="136"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="320" t="s">
+      <c r="A119" s="330" t="s">
         <v>28</v>
       </c>
-      <c r="B119" s="321"/>
-      <c r="C119" s="324"/>
+      <c r="B119" s="331"/>
+      <c r="C119" s="334"/>
       <c r="D119" s="210">
         <f>SUM(D37:D118)</f>
         <v>2588880</v>
@@ -22236,11 +22266,11 @@
       <c r="CS120" s="136"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="320" t="s">
+      <c r="A121" s="330" t="s">
         <v>29</v>
       </c>
-      <c r="B121" s="321"/>
-      <c r="C121" s="321"/>
+      <c r="B121" s="331"/>
+      <c r="C121" s="331"/>
       <c r="D121" s="210">
         <f>D119+M121</f>
         <v>2588880</v>
@@ -33474,7 +33504,7 @@
   </sheetPr>
   <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -33491,35 +33521,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="338" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="329"/>
-      <c r="C1" s="329"/>
-      <c r="D1" s="329"/>
-      <c r="E1" s="330"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="340"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="21.75">
-      <c r="A2" s="337" t="s">
+      <c r="A2" s="347" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="338"/>
-      <c r="C2" s="338"/>
-      <c r="D2" s="338"/>
-      <c r="E2" s="339"/>
+      <c r="B2" s="348"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="349"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="23.25">
-      <c r="A3" s="331" t="s">
+      <c r="A3" s="341" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="332"/>
-      <c r="C3" s="332"/>
-      <c r="D3" s="332"/>
-      <c r="E3" s="333"/>
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="343"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33534,13 +33564,13 @@
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="340" t="s">
+      <c r="A4" s="350" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="341"/>
-      <c r="C4" s="341"/>
-      <c r="D4" s="341"/>
-      <c r="E4" s="342"/>
+      <c r="B4" s="351"/>
+      <c r="C4" s="351"/>
+      <c r="D4" s="351"/>
+      <c r="E4" s="352"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -33876,13 +33906,13 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" ht="22.5">
-      <c r="A18" s="334" t="s">
+      <c r="A18" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="335"/>
-      <c r="C18" s="335"/>
-      <c r="D18" s="335"/>
-      <c r="E18" s="336"/>
+      <c r="B18" s="345"/>
+      <c r="C18" s="345"/>
+      <c r="D18" s="345"/>
+      <c r="E18" s="346"/>
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7"/>
